--- a/man/completed sheets/2015-11-2/Maurice_Corriettetimesheet021115.xlsx
+++ b/man/completed sheets/2015-11-2/Maurice_Corriettetimesheet021115.xlsx
@@ -465,7 +465,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,11 +501,11 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>"Total hours accounted this week: " &amp;TEXT(I1, "hh:mm")</f>
-        <v>Total hours accounted this week: 13:00</v>
+        <v>Total hours accounted this week: 08:00</v>
       </c>
       <c r="I1" s="6">
         <f>SUM(F3:F100)</f>
-        <v>0.54166666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -559,7 +559,7 @@
         <v>42316</v>
       </c>
       <c r="F3" s="11">
-        <v>0.54166666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
